--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Thbs2-Notch3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Thbs2-Notch3.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5622926666666667</v>
+        <v>1.281134</v>
       </c>
       <c r="H2">
-        <v>1.686878</v>
+        <v>3.843402</v>
       </c>
       <c r="I2">
-        <v>0.003273311980002875</v>
+        <v>0.007312702338676299</v>
       </c>
       <c r="J2">
-        <v>0.003273311980002875</v>
+        <v>0.007312702338676299</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>3.684362666666667</v>
+        <v>3.151158666666667</v>
       </c>
       <c r="N2">
-        <v>11.053088</v>
+        <v>9.453476</v>
       </c>
       <c r="O2">
-        <v>0.0397011572965827</v>
+        <v>0.03114707555614071</v>
       </c>
       <c r="P2">
-        <v>0.0397011572965827</v>
+        <v>0.03114707555614071</v>
       </c>
       <c r="Q2">
-        <v>2.071690108807111</v>
+        <v>4.037056507261334</v>
       </c>
       <c r="R2">
-        <v>18.645210979264</v>
+        <v>36.33350856535201</v>
       </c>
       <c r="S2">
-        <v>0.0001299542737988827</v>
+        <v>0.0002277692922623176</v>
       </c>
       <c r="T2">
-        <v>0.0001299542737988827</v>
+        <v>0.0002277692922623175</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5622926666666667</v>
+        <v>1.281134</v>
       </c>
       <c r="H3">
-        <v>1.686878</v>
+        <v>3.843402</v>
       </c>
       <c r="I3">
-        <v>0.003273311980002875</v>
+        <v>0.007312702338676299</v>
       </c>
       <c r="J3">
-        <v>0.003273311980002875</v>
+        <v>0.007312702338676299</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.038243666666666</v>
+        <v>5.038243666666667</v>
       </c>
       <c r="N3">
         <v>15.114731</v>
       </c>
       <c r="O3">
-        <v>0.05429001496473516</v>
+        <v>0.04979963650066307</v>
       </c>
       <c r="P3">
-        <v>0.05429001496473516</v>
+        <v>0.04979963650066306</v>
       </c>
       <c r="Q3">
-        <v>2.832967466646444</v>
+        <v>6.454665261651334</v>
       </c>
       <c r="R3">
-        <v>25.496707199818</v>
+        <v>58.09198735486201</v>
       </c>
       <c r="S3">
-        <v>0.0001777081563786029</v>
+        <v>0.0003641699183036284</v>
       </c>
       <c r="T3">
-        <v>0.0001777081563786029</v>
+        <v>0.0003641699183036284</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5622926666666667</v>
+        <v>1.281134</v>
       </c>
       <c r="H4">
-        <v>1.686878</v>
+        <v>3.843402</v>
       </c>
       <c r="I4">
-        <v>0.003273311980002875</v>
+        <v>0.007312702338676299</v>
       </c>
       <c r="J4">
-        <v>0.003273311980002875</v>
+        <v>0.007312702338676299</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>83.98262666666666</v>
+        <v>92.91163899999999</v>
       </c>
       <c r="N4">
-        <v>251.94788</v>
+        <v>278.734917</v>
       </c>
       <c r="O4">
-        <v>0.9049618002155182</v>
+        <v>0.9183688116343246</v>
       </c>
       <c r="P4">
-        <v>0.9049618002155182</v>
+        <v>0.9183688116343246</v>
       </c>
       <c r="Q4">
-        <v>47.22281510207111</v>
+        <v>119.032259718626</v>
       </c>
       <c r="R4">
-        <v>425.00533591864</v>
+        <v>1071.290337467634</v>
       </c>
       <c r="S4">
-        <v>0.002962222302090423</v>
+        <v>0.006715757756605698</v>
       </c>
       <c r="T4">
-        <v>0.002962222302090423</v>
+        <v>0.006715757756605698</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5622926666666667</v>
+        <v>1.281134</v>
       </c>
       <c r="H5">
-        <v>1.686878</v>
+        <v>3.843402</v>
       </c>
       <c r="I5">
-        <v>0.003273311980002875</v>
+        <v>0.007312702338676299</v>
       </c>
       <c r="J5">
-        <v>0.003273311980002875</v>
+        <v>0.007312702338676299</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.09716666666666667</v>
+        <v>0.06924866666666667</v>
       </c>
       <c r="N5">
-        <v>0.2915</v>
+        <v>0.207746</v>
       </c>
       <c r="O5">
-        <v>0.001047027523164011</v>
+        <v>0.0006844763088715736</v>
       </c>
       <c r="P5">
-        <v>0.001047027523164011</v>
+        <v>0.0006844763088715734</v>
       </c>
       <c r="Q5">
-        <v>0.05463610411111111</v>
+        <v>0.08871682132133334</v>
       </c>
       <c r="R5">
-        <v>0.491724937</v>
+        <v>0.798451391892</v>
       </c>
       <c r="S5">
-        <v>3.427247734965495E-06</v>
+        <v>5.005371504653677E-06</v>
       </c>
       <c r="T5">
-        <v>3.427247734965495E-06</v>
+        <v>5.005371504653676E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>493.967652</v>
       </c>
       <c r="I6">
-        <v>0.958522331209187</v>
+        <v>0.9398544320918915</v>
       </c>
       <c r="J6">
-        <v>0.9585223312091868</v>
+        <v>0.9398544320918915</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>3.684362666666667</v>
+        <v>3.151158666666667</v>
       </c>
       <c r="N6">
-        <v>11.053088</v>
+        <v>9.453476</v>
       </c>
       <c r="O6">
-        <v>0.0397011572965827</v>
+        <v>0.03114707555614071</v>
       </c>
       <c r="P6">
-        <v>0.0397011572965827</v>
+        <v>0.03114707555614071</v>
       </c>
       <c r="Q6">
-        <v>606.6519918565973</v>
+        <v>518.8568158842613</v>
       </c>
       <c r="R6">
-        <v>5459.867926709376</v>
+        <v>4669.711342958352</v>
       </c>
       <c r="S6">
-        <v>0.03805444584362307</v>
+        <v>0.02927371700813986</v>
       </c>
       <c r="T6">
-        <v>0.03805444584362307</v>
+        <v>0.02927371700813986</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>493.967652</v>
       </c>
       <c r="I7">
-        <v>0.958522331209187</v>
+        <v>0.9398544320918915</v>
       </c>
       <c r="J7">
-        <v>0.9585223312091868</v>
+        <v>0.9398544320918915</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.038243666666666</v>
+        <v>5.038243666666667</v>
       </c>
       <c r="N7">
         <v>15.114731</v>
       </c>
       <c r="O7">
-        <v>0.05429001496473516</v>
+        <v>0.04979963650066307</v>
       </c>
       <c r="P7">
-        <v>0.05429001496473516</v>
+        <v>0.04979963650066306</v>
       </c>
       <c r="Q7">
-        <v>829.5764647424012</v>
+        <v>829.5764647424014</v>
       </c>
       <c r="R7">
-        <v>7466.188182681612</v>
+        <v>7466.188182681613</v>
       </c>
       <c r="S7">
-        <v>0.05203819170537959</v>
+        <v>0.04680440908171331</v>
       </c>
       <c r="T7">
-        <v>0.05203819170537959</v>
+        <v>0.04680440908171331</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>493.967652</v>
       </c>
       <c r="I8">
-        <v>0.958522331209187</v>
+        <v>0.9398544320918915</v>
       </c>
       <c r="J8">
-        <v>0.9585223312091868</v>
+        <v>0.9398544320918915</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>83.98262666666666</v>
+        <v>92.91163899999999</v>
       </c>
       <c r="N8">
-        <v>251.94788</v>
+        <v>278.734917</v>
       </c>
       <c r="O8">
-        <v>0.9049618002155182</v>
+        <v>0.9183688116343246</v>
       </c>
       <c r="P8">
-        <v>0.9049618002155182</v>
+        <v>0.9183688116343246</v>
       </c>
       <c r="Q8">
-        <v>13828.23363444197</v>
+        <v>15298.44805343387</v>
       </c>
       <c r="R8">
-        <v>124454.1027099778</v>
+        <v>137686.0324809049</v>
       </c>
       <c r="S8">
-        <v>0.867426094397841</v>
+        <v>0.8631329979094834</v>
       </c>
       <c r="T8">
-        <v>0.8674260943978409</v>
+        <v>0.8631329979094834</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>493.967652</v>
       </c>
       <c r="I9">
-        <v>0.958522331209187</v>
+        <v>0.9398544320918915</v>
       </c>
       <c r="J9">
-        <v>0.9585223312091868</v>
+        <v>0.9398544320918915</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,28 +989,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.09716666666666667</v>
+        <v>0.06924866666666667</v>
       </c>
       <c r="N9">
-        <v>0.2915</v>
+        <v>0.207746</v>
       </c>
       <c r="O9">
-        <v>0.001047027523164011</v>
+        <v>0.0006844763088715736</v>
       </c>
       <c r="P9">
-        <v>0.001047027523164011</v>
+        <v>0.0006844763088715734</v>
       </c>
       <c r="Q9">
-        <v>15.99906339533333</v>
+        <v>11.40220042582133</v>
       </c>
       <c r="R9">
-        <v>143.991570558</v>
+        <v>102.619803832392</v>
       </c>
       <c r="S9">
-        <v>0.001003599262343349</v>
+        <v>0.0006433080925548468</v>
       </c>
       <c r="T9">
-        <v>0.001003599262343349</v>
+        <v>0.0006433080925548467</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.525024333333334</v>
+        <v>9.213772333333333</v>
       </c>
       <c r="H10">
-        <v>19.575073</v>
+        <v>27.641317</v>
       </c>
       <c r="I10">
-        <v>0.03798456139704876</v>
+        <v>0.05259213672418158</v>
       </c>
       <c r="J10">
-        <v>0.03798456139704876</v>
+        <v>0.05259213672418158</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>3.684362666666667</v>
+        <v>3.151158666666667</v>
       </c>
       <c r="N10">
-        <v>11.053088</v>
+        <v>9.453476</v>
       </c>
       <c r="O10">
-        <v>0.0397011572965827</v>
+        <v>0.03114707555614071</v>
       </c>
       <c r="P10">
-        <v>0.0397011572965827</v>
+        <v>0.03114707555614071</v>
       </c>
       <c r="Q10">
-        <v>24.04055605282489</v>
+        <v>29.03405854087689</v>
       </c>
       <c r="R10">
-        <v>216.365004475424</v>
+        <v>261.306526867892</v>
       </c>
       <c r="S10">
-        <v>0.001508031046865936</v>
+        <v>0.001638091256206966</v>
       </c>
       <c r="T10">
-        <v>0.001508031046865936</v>
+        <v>0.001638091256206966</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.525024333333334</v>
+        <v>9.213772333333333</v>
       </c>
       <c r="H11">
-        <v>19.575073</v>
+        <v>27.641317</v>
       </c>
       <c r="I11">
-        <v>0.03798456139704876</v>
+        <v>0.05259213672418158</v>
       </c>
       <c r="J11">
-        <v>0.03798456139704876</v>
+        <v>0.05259213672418158</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.038243666666666</v>
+        <v>5.038243666666667</v>
       </c>
       <c r="N11">
         <v>15.114731</v>
       </c>
       <c r="O11">
-        <v>0.05429001496473516</v>
+        <v>0.04979963650066307</v>
       </c>
       <c r="P11">
-        <v>0.05429001496473516</v>
+        <v>0.04979963650066306</v>
       </c>
       <c r="Q11">
-        <v>32.87466252226255</v>
+        <v>46.42123010452523</v>
       </c>
       <c r="R11">
-        <v>295.871962700363</v>
+        <v>417.7910709407271</v>
       </c>
       <c r="S11">
-        <v>0.002062182406674678</v>
+        <v>0.002619069291657416</v>
       </c>
       <c r="T11">
-        <v>0.002062182406674678</v>
+        <v>0.002619069291657415</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.525024333333334</v>
+        <v>9.213772333333333</v>
       </c>
       <c r="H12">
-        <v>19.575073</v>
+        <v>27.641317</v>
       </c>
       <c r="I12">
-        <v>0.03798456139704876</v>
+        <v>0.05259213672418158</v>
       </c>
       <c r="J12">
-        <v>0.03798456139704876</v>
+        <v>0.05259213672418158</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>83.98262666666666</v>
+        <v>92.91163899999999</v>
       </c>
       <c r="N12">
-        <v>251.94788</v>
+        <v>278.734917</v>
       </c>
       <c r="O12">
-        <v>0.9049618002155182</v>
+        <v>0.9183688116343246</v>
       </c>
       <c r="P12">
-        <v>0.9049618002155182</v>
+        <v>0.9183688116343246</v>
       </c>
       <c r="Q12">
-        <v>547.9886825772488</v>
+        <v>856.0666888628542</v>
       </c>
       <c r="R12">
-        <v>4931.89814319524</v>
+        <v>7704.600199765689</v>
       </c>
       <c r="S12">
-        <v>0.03437457706227012</v>
+        <v>0.04829897810469656</v>
       </c>
       <c r="T12">
-        <v>0.03437457706227012</v>
+        <v>0.04829897810469656</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.525024333333334</v>
+        <v>9.213772333333333</v>
       </c>
       <c r="H13">
-        <v>19.575073</v>
+        <v>27.641317</v>
       </c>
       <c r="I13">
-        <v>0.03798456139704876</v>
+        <v>0.05259213672418158</v>
       </c>
       <c r="J13">
-        <v>0.03798456139704876</v>
+        <v>0.05259213672418158</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1237,28 +1237,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.09716666666666667</v>
+        <v>0.06924866666666667</v>
       </c>
       <c r="N13">
-        <v>0.2915</v>
+        <v>0.207746</v>
       </c>
       <c r="O13">
-        <v>0.001047027523164011</v>
+        <v>0.0006844763088715736</v>
       </c>
       <c r="P13">
-        <v>0.001047027523164011</v>
+        <v>0.0006844763088715734</v>
       </c>
       <c r="Q13">
-        <v>0.6340148643888889</v>
+        <v>0.6380414490535555</v>
       </c>
       <c r="R13">
-        <v>5.706133779499999</v>
+        <v>5.742373041482</v>
       </c>
       <c r="S13">
-        <v>3.977088123802328E-05</v>
+        <v>3.599807162063693E-05</v>
       </c>
       <c r="T13">
-        <v>3.977088123802328E-05</v>
+        <v>3.599807162063693E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.03775666666666667</v>
+        <v>0.042174</v>
       </c>
       <c r="H14">
-        <v>0.11327</v>
+        <v>0.126522</v>
       </c>
       <c r="I14">
-        <v>0.0002197954137613542</v>
+        <v>0.0002407288452506406</v>
       </c>
       <c r="J14">
-        <v>0.0002197954137613542</v>
+        <v>0.0002407288452506406</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>3.684362666666667</v>
+        <v>3.151158666666667</v>
       </c>
       <c r="N14">
-        <v>11.053088</v>
+        <v>9.453476</v>
       </c>
       <c r="O14">
-        <v>0.0397011572965827</v>
+        <v>0.03114707555614071</v>
       </c>
       <c r="P14">
-        <v>0.0397011572965827</v>
+        <v>0.03114707555614071</v>
       </c>
       <c r="Q14">
-        <v>0.1391092530844445</v>
+        <v>0.132896965608</v>
       </c>
       <c r="R14">
-        <v>1.25198327776</v>
+        <v>1.196072690472</v>
       </c>
       <c r="S14">
-        <v>8.726132294806999E-06</v>
+        <v>7.497999531564209E-06</v>
       </c>
       <c r="T14">
-        <v>8.726132294806999E-06</v>
+        <v>7.497999531564207E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.03775666666666667</v>
+        <v>0.042174</v>
       </c>
       <c r="H15">
-        <v>0.11327</v>
+        <v>0.126522</v>
       </c>
       <c r="I15">
-        <v>0.0002197954137613542</v>
+        <v>0.0002407288452506406</v>
       </c>
       <c r="J15">
-        <v>0.0002197954137613542</v>
+        <v>0.0002407288452506406</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.038243666666666</v>
+        <v>5.038243666666667</v>
       </c>
       <c r="N15">
         <v>15.114731</v>
       </c>
       <c r="O15">
-        <v>0.05429001496473516</v>
+        <v>0.04979963650066307</v>
       </c>
       <c r="P15">
-        <v>0.05429001496473516</v>
+        <v>0.04979963650066306</v>
       </c>
       <c r="Q15">
-        <v>0.1902272867077778</v>
+        <v>0.212482888398</v>
       </c>
       <c r="R15">
-        <v>1.71204558037</v>
+        <v>1.912345995582</v>
       </c>
       <c r="S15">
-        <v>1.193269630228408E-05</v>
+        <v>1.198820898870627E-05</v>
       </c>
       <c r="T15">
-        <v>1.193269630228407E-05</v>
+        <v>1.198820898870627E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.03775666666666667</v>
+        <v>0.042174</v>
       </c>
       <c r="H16">
-        <v>0.11327</v>
+        <v>0.126522</v>
       </c>
       <c r="I16">
-        <v>0.0002197954137613542</v>
+        <v>0.0002407288452506406</v>
       </c>
       <c r="J16">
-        <v>0.0002197954137613542</v>
+        <v>0.0002407288452506406</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>83.98262666666666</v>
+        <v>92.91163899999999</v>
       </c>
       <c r="N16">
-        <v>251.94788</v>
+        <v>278.734917</v>
       </c>
       <c r="O16">
-        <v>0.9049618002155182</v>
+        <v>0.9183688116343246</v>
       </c>
       <c r="P16">
-        <v>0.9049618002155182</v>
+        <v>0.9183688116343246</v>
       </c>
       <c r="Q16">
-        <v>3.170904040844444</v>
+        <v>3.918455463186</v>
       </c>
       <c r="R16">
-        <v>28.5381363676</v>
+        <v>35.266099168674</v>
       </c>
       <c r="S16">
-        <v>0.0001989064533165897</v>
+        <v>0.000221077863538934</v>
       </c>
       <c r="T16">
-        <v>0.0001989064533165897</v>
+        <v>0.000221077863538934</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.03775666666666667</v>
+        <v>0.042174</v>
       </c>
       <c r="H17">
-        <v>0.11327</v>
+        <v>0.126522</v>
       </c>
       <c r="I17">
-        <v>0.0002197954137613542</v>
+        <v>0.0002407288452506406</v>
       </c>
       <c r="J17">
-        <v>0.0002197954137613542</v>
+        <v>0.0002407288452506406</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1485,28 +1485,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.09716666666666667</v>
+        <v>0.06924866666666667</v>
       </c>
       <c r="N17">
-        <v>0.2915</v>
+        <v>0.207746</v>
       </c>
       <c r="O17">
-        <v>0.001047027523164011</v>
+        <v>0.0006844763088715736</v>
       </c>
       <c r="P17">
-        <v>0.001047027523164011</v>
+        <v>0.0006844763088715734</v>
       </c>
       <c r="Q17">
-        <v>0.003668689444444445</v>
+        <v>0.002920493268</v>
       </c>
       <c r="R17">
-        <v>0.033018205</v>
+        <v>0.026284439412</v>
       </c>
       <c r="S17">
-        <v>2.301318476733597E-07</v>
+        <v>1.647731914360747E-07</v>
       </c>
       <c r="T17">
-        <v>2.301318476733597E-07</v>
+        <v>1.647731914360747E-07</v>
       </c>
     </row>
   </sheetData>
